--- a/PREPARECTI.xlsx
+++ b/PREPARECTI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Laravel\cti_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401DE431-5A95-484A-9E79-F766E228CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3826FE1-6447-4B3B-8631-15D18C0C6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2352A5E9-D46C-43FB-B189-5BFE52A39EDE}"/>
   </bookViews>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,11 +246,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -472,44 +467,44 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,27 +536,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,11 +633,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -656,14 +650,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -672,7 +671,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB4C989-C4D9-461B-9B30-2BD96C75805A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -712,20 +711,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -734,7 +738,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77269608-9787-43C1-8850-93E8C4922464}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -774,20 +778,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
@@ -796,7 +805,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD8E669-276F-4E67-93BA-87DE0BCDB411}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -836,20 +845,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -858,7 +872,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AEF079-C20C-4FE2-BFFF-7C1AA820FCD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -898,20 +912,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
@@ -920,7 +939,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419C9E38-1633-4032-B57D-FA5DF9CF1BB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -960,20 +979,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -982,7 +1006,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D030EA10-6E58-4BD8-8080-157F5621F202}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -999,11 +1023,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1011,20 +1034,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1033,7 +1061,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C605DEE9-C5F9-46F8-B900-F4B062C15156}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1050,11 +1078,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1062,20 +1089,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -1084,7 +1116,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90EF4C1-11B6-4E6B-AEDA-F55E6C8EB7EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1101,11 +1133,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1113,20 +1144,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -1135,7 +1171,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22B14C7-4555-47C1-8CB3-4C415D3FFE29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1152,11 +1188,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1164,20 +1199,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -1186,7 +1226,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD4E035-645A-4F42-88BC-53A0773670FD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1203,11 +1243,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1215,20 +1254,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -1237,7 +1281,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E73208-B586-4F49-A30C-AA8AEB7EA20C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1254,11 +1298,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1266,20 +1309,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -1288,7 +1336,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1FC4AE-2D74-444C-9C81-F84257E1D30B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1305,11 +1353,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1317,20 +1364,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -1339,7 +1391,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2649E4-12F0-4C63-891B-A56C18A8C5CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1356,11 +1408,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1368,20 +1419,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -1390,7 +1446,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C63565-76F7-4FAB-A6B2-A8D91581E0D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1407,11 +1463,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1419,20 +1474,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1441,7 +1501,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509AD066-8AF6-4D94-9EAF-1EF8F370D1BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1458,11 +1518,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1470,20 +1529,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="205740" cy="236220"/>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -1492,7 +1556,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46724C28-7CA6-4C3E-B014-7ECEFA76C31B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1509,11 +1573,10 @@
             <a:solidFill>
               <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1521,7 +1584,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2155,7 +2218,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O6"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2171,50 +2234,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="K1" s="25" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="K1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="35"/>
+      <c r="F2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="K2" s="27" t="s">
+      <c r="I2" s="37"/>
+      <c r="K2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2255,37 +2318,37 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="31">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>3</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="28">
         <v>2</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="28" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="28">
         <v>5</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="28">
         <v>4</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="28" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -2293,29 +2356,29 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
@@ -2331,21 +2394,21 @@
       <c r="I6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2357,17 +2420,17 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2378,11 +2441,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A1:D1"/>
@@ -2393,12 +2457,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PREPARECTI.xlsx
+++ b/PREPARECTI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Laravel\cti_dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cti_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3826FE1-6447-4B3B-8631-15D18C0C6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D2C4F-3789-4212-B1C5-EC2060A2158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2352A5E9-D46C-43FB-B189-5BFE52A39EDE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{2352A5E9-D46C-43FB-B189-5BFE52A39EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="PBI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Login as user</t>
   </si>
   <si>
-    <t>User dapat login kedalam dashboard kelola catalog dan postingan</t>
-  </si>
-  <si>
     <t>Prioritas (1-100)</t>
   </si>
   <si>
@@ -77,15 +74,9 @@
     <t>kelola data catalog</t>
   </si>
   <si>
-    <t>user dapat menambah, hapus dan memperbarui data catalog</t>
-  </si>
-  <si>
     <t>Register Catalog</t>
   </si>
   <si>
-    <t>User dapat melakukan pendaftaran kedalam blog</t>
-  </si>
-  <si>
     <t>Jenis</t>
   </si>
   <si>
@@ -213,6 +204,81 @@
   </si>
   <si>
     <t>Implementasi coding tampil DATA CATALOG di halaman CATALOG (GUEST)</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Login as admin</t>
+  </si>
+  <si>
+    <t>admin dapat login kedalam dashboard kelola catalog dan postingan</t>
+  </si>
+  <si>
+    <t>admin dapat melakukan pendaftaran kedalam blog</t>
+  </si>
+  <si>
+    <t>admin dapat menambah, hapus dan memperbarui data catalog</t>
+  </si>
+  <si>
+    <t>User dapat login untuk membeli item</t>
+  </si>
+  <si>
+    <t>user dapat check out barang</t>
+  </si>
+  <si>
+    <t>checkout barang</t>
+  </si>
+  <si>
+    <t>kelola check out barang</t>
+  </si>
+  <si>
+    <t>admin dapat mengelola hasil checkout dari user</t>
+  </si>
+  <si>
+    <t>Login multilevel admin dan user</t>
+  </si>
+  <si>
+    <t>login user kedalam landing page saja</t>
+  </si>
+  <si>
+    <t>user dapat menambahkan barang kedalam keranjang</t>
+  </si>
+  <si>
+    <t>user dapat melakukan checkout barang</t>
+  </si>
+  <si>
+    <t>Mengelola hasil checkout user</t>
+  </si>
+  <si>
+    <t>Login Multilevel</t>
+  </si>
+  <si>
+    <t>Login Multilevel User dan Admin</t>
+  </si>
+  <si>
+    <t>Login admin dapat masuk kedalam dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login user dapat masuk kedalam landing page </t>
+  </si>
+  <si>
+    <t>CheckOut Barang</t>
+  </si>
+  <si>
+    <t>User dapat checkout barang</t>
+  </si>
+  <si>
+    <t>User dapat memasukkan barang yang diinginkan kedalam keranjang</t>
+  </si>
+  <si>
+    <t>User dapat melakukan checkout hingga mencetak invoice</t>
+  </si>
+  <si>
+    <t>Pembagian multilevel user dan admin</t>
+  </si>
+  <si>
+    <t>Membuat halaman checkout barang</t>
   </si>
 </sst>
 </file>
@@ -393,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +533,36 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,34 +572,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,7 +640,35 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -598,15 +707,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -653,15 +762,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -720,15 +829,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -787,15 +896,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -854,15 +963,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -921,15 +1030,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -988,15 +1097,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1043,15 +1152,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1098,15 +1207,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1153,15 +1262,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1208,15 +1317,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1263,15 +1372,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1318,15 +1427,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1373,15 +1482,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1428,15 +1537,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1483,15 +1592,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1538,15 +1647,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>196850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>349250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1557,6 +1666,411 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>349250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820B9103-AB98-9B8D-68AB-50982071FCE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>349250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C513EA22-0CCF-1EF5-80DD-074991C3259A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>75581</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>310531</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450569B3-8F75-BAA0-82A3-9D96AA6028E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>122044</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>356994</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360B9882-35E8-3AE3-400A-326E86C93D42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>349250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FC7BCC-EF84-57D2-004B-874619E169E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>`</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>349250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DA72D8-E38B-344E-DBB3-978F16274FD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="008000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="17"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>349250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182ED11C-03D3-BD75-D59C-3C9D7E0BAB00}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1890,22 +2404,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422C1CAF-C44D-405C-89CE-4F42E9D18D9D}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1916,12 +2430,12 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1930,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -1939,100 +2453,124 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+    <row r="7" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2045,160 +2583,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B085C9A7-81E5-4547-9450-CC6A8882A767}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>3</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>4</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D11"/>
@@ -2210,177 +2817,178 @@
     <mergeCell ref="D4:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F25B7B-DE79-406B-9A70-0A3ADAEB2CCE}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="25.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="K1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="F2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="F2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="K2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="K2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="37"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="F4" s="31">
+        <v>3</v>
+      </c>
+      <c r="G4" s="31">
+        <v>2</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="31">
+        <v>5</v>
+      </c>
+      <c r="L4" s="31">
+        <v>4</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>1</v>
-      </c>
-      <c r="B4" s="31">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="28">
-        <v>3</v>
-      </c>
-      <c r="G4" s="28">
-        <v>2</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="28">
-        <v>5</v>
-      </c>
-      <c r="L4" s="28">
-        <v>4</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="16">
         <v>4</v>
@@ -2389,64 +2997,195 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
         <v>2</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="35">
         <v>1</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>40</v>
+      <c r="C7" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="29"/>
+    <row r="8" spans="1:14" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="F11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="F12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21">
+        <v>5</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="40">
+        <v>7</v>
+      </c>
+      <c r="G14" s="40">
+        <v>6</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
+  <mergeCells count="33">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A1:D1"/>
@@ -2457,11 +3196,12 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2476,15 +3216,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2498,15 +3238,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2520,15 +3260,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2542,15 +3282,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2564,15 +3304,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2586,15 +3326,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2608,15 +3348,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2630,15 +3370,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2652,15 +3392,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2674,15 +3414,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2696,15 +3436,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2718,15 +3458,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2740,15 +3480,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2762,15 +3502,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2784,15 +3524,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2806,15 +3546,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2828,15 +3568,169 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>196850</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>349250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId20" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>349250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId21" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>349250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId22" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>311150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId23" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>120650</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>355600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId24" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>349250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId25" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>349250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId26" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>349250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
